--- a/datatickers123.xlsx
+++ b/datatickers123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,17 +546,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NYMX</t>
+          <t>MAA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2759</v>
+        <v>24</v>
       </c>
       <c r="E2" t="n">
-        <v>-4999.308</v>
+        <v>-4920.96</v>
       </c>
       <c r="F2" t="n">
-        <v>4999.308</v>
+        <v>4920.96</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -565,46 +565,624 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Nymox Pharmaceutical Corporation</t>
+          <t>Mid-America Apartment Communities, Inc.</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>2455.510289430618</v>
+        <v>867.840087890625</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
+          <t>2021-10-14</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>1.0925</v>
+      </c>
+      <c r="M2" t="n">
+        <v>203.98</v>
+      </c>
+      <c r="N2" t="n">
+        <v>205.04</v>
+      </c>
+      <c r="O2" t="n">
+        <v>203.04</v>
+      </c>
+      <c r="P2" t="n">
+        <v>205.97</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>119.21</v>
+      </c>
+      <c r="R2" t="n">
+        <v>207.69</v>
+      </c>
+      <c r="S2" t="n">
+        <v>197.28555</v>
+      </c>
+      <c r="T2" t="n">
+        <v>181.94092</v>
+      </c>
+      <c r="U2" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>TGTX</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>157</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-4989.46</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4989.46</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>TG Therapeutics, Inc.</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>1099.000074863434</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L2" t="n">
+      <c r="L3" t="n">
         <v>0</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M3" t="n">
+        <v>33.43</v>
+      </c>
+      <c r="N3" t="n">
+        <v>31.78</v>
+      </c>
+      <c r="O3" t="n">
+        <v>31.46</v>
+      </c>
+      <c r="P3" t="n">
+        <v>33.44</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>21.058</v>
+      </c>
+      <c r="R3" t="n">
+        <v>56.74</v>
+      </c>
+      <c r="S3" t="n">
+        <v>32.713055</v>
+      </c>
+      <c r="T3" t="n">
+        <v>33.39571</v>
+      </c>
+      <c r="U3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CIB</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>150</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-4968</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4968</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bancolombia S.A.</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>2503.500366210938</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2021-09-28</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>0.3498</v>
+      </c>
+      <c r="M4" t="n">
+        <v>33.08</v>
+      </c>
+      <c r="N4" t="n">
+        <v>33.12</v>
+      </c>
+      <c r="O4" t="n">
+        <v>32.48</v>
+      </c>
+      <c r="P4" t="n">
+        <v>33.22</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>27.64</v>
+      </c>
+      <c r="R4" t="n">
+        <v>42</v>
+      </c>
+      <c r="S4" t="n">
+        <v>35.11778</v>
+      </c>
+      <c r="T4" t="n">
+        <v>31.715036</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>BOH</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>57</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-4984.650000000001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4984.650000000001</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bank of Hawaii Corporation</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>1586.880226135254</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2021-11-29</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>0.4705</v>
+      </c>
+      <c r="M5" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="N5" t="n">
+        <v>87.45</v>
+      </c>
+      <c r="O5" t="n">
+        <v>86.52500000000001</v>
+      </c>
+      <c r="P5" t="n">
+        <v>88.06</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>73.11</v>
+      </c>
+      <c r="R5" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="S5" t="n">
+        <v>84.674446</v>
+      </c>
+      <c r="T5" t="n">
+        <v>85.42843999999999</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CLSD</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1022</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-4997.58</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4997.58</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Clearside Biomedical, Inc.</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>1870.260043859482</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R6" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5.463611</v>
+      </c>
+      <c r="T6" t="n">
+        <v>4.901454</v>
+      </c>
+      <c r="U6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>HASI</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>78</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-4998.24</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4998.24</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Hannon Armstrong Sustainable Infrastructure Capital, Inc.</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>1024.140083312988</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2021-12-27</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1.2523</v>
+      </c>
+      <c r="M7" t="n">
+        <v>63.07</v>
+      </c>
+      <c r="N7" t="n">
+        <v>64.08</v>
+      </c>
+      <c r="O7" t="n">
+        <v>62.94</v>
+      </c>
+      <c r="P7" t="n">
+        <v>64.23999999999999</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>44.69</v>
+      </c>
+      <c r="R7" t="n">
+        <v>72.42</v>
+      </c>
+      <c r="S7" t="n">
+        <v>58.64528</v>
+      </c>
+      <c r="T7" t="n">
+        <v>55.591843</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>AVAL</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>886</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-4997.04</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4997.04</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Grupo Aval Acciones y Valores S.A.</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>2498.52015209198</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2021-11-29</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>0.4273</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="O8" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5.9058332</v>
+      </c>
+      <c r="T8" t="n">
+        <v>5.7478013</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>SKY</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>65</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-4939.349999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4939.349999999999</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Skyline Champion Corporation</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>1105.65007686615</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2018-05-24</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>75.33</v>
+      </c>
+      <c r="N9" t="n">
+        <v>75.98999999999999</v>
+      </c>
+      <c r="O9" t="n">
+        <v>74.56</v>
+      </c>
+      <c r="P9" t="n">
+        <v>76.34</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>28.73</v>
+      </c>
+      <c r="R9" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="S9" t="n">
+        <v>64.97360999999999</v>
+      </c>
+      <c r="T9" t="n">
+        <v>56.778652</v>
+      </c>
+      <c r="U9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NYMX</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>3012</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-4999.92</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4999.92</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Nymox Pharmaceutical Corporation</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>2680.680315971375</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
         <v>1.76</v>
       </c>
-      <c r="N2" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q2" t="n">
+      <c r="N10" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q10" t="n">
         <v>1.25</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R10" t="n">
         <v>3.5</v>
       </c>
-      <c r="S2" t="n">
-        <v>1.955</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.7909353</v>
-      </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>1.9277778</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.7875886</v>
+      </c>
+      <c r="U10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datatickers123.xlsx
+++ b/datatickers123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,7 +531,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -541,14 +541,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>XBIT</t>
+          <t>KB</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1142</v>
+        <v>120</v>
       </c>
       <c r="F2" t="n">
-        <v>4.377177715301514</v>
+        <v>41.36999893188477</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -560,19 +560,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-4998.736950874329</v>
+        <v>-4964.399871826172</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1250</v>
+        <v>121.9512195121951</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4998.736950874329</v>
+        <v>4964.399871826172</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -587,54 +587,314 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>4.377177715301514</v>
+        <v>41.36999893188477</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CIB</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>94</v>
+      </c>
+      <c r="F3" t="n">
+        <v>52.711181640625</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-4954.85107421875</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>96.15384615384616</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4954.85107421875</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>52.711181640625</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>AVAL</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>619</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8.075420379638672</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-4998.685214996338</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>625</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4998.685214996338</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>8.075420379638672</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DMTK</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>403</v>
+      </c>
+      <c r="F6" t="n">
+        <v>12.39999961853027</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-4997.1998462677</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>416.6666666666667</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4997.1998462677</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>12.39999961853027</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>GLBD</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2941</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.700000047683716</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-4999.700140237808</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4999.700140237808</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.700000047683716</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datatickers123.xlsx
+++ b/datatickers123.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,10 +533,8 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>01/01/2020</t>
-        </is>
+      <c r="B2" s="2" t="n">
+        <v>43832</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -541,38 +543,38 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>KB</t>
+          <t>WTI</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>120</v>
+        <v>922</v>
       </c>
       <c r="F2" t="n">
-        <v>41.36999893188477</v>
+        <v>5.420000076293945</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4997.240070343018</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-4964.399871826172</v>
+        <v>-5000</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>121.9512195121951</v>
+        <v>922.5092121066665</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4964.399871826172</v>
+        <v>5000</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -587,82 +589,78 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>41.36999893188477</v>
+        <v>5.420000076293945</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>01/01/2020</t>
-        </is>
+      <c r="B3" s="2" t="n">
+        <v>43885</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CIB</t>
+          <t>WTI</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>94</v>
+        <v>922</v>
       </c>
       <c r="F3" t="n">
-        <v>52.711181640625</v>
+        <v>3.230000019073486</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2978.060017585754</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-4954.85107421875</v>
+        <v>-5000</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96.15384615384616</v>
+        <v>1547.987606958043</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4954.85107421875</v>
+        <v>5000</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4997.240070343018</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.420000076293945</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>-2019.180052757263</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.59594095454</v>
       </c>
       <c r="S3" t="n">
-        <v>52.711181640625</v>
+        <v>3.230000019073486</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>01/01/2020</t>
-        </is>
+      <c r="B4" s="2" t="n">
+        <v>44193</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -671,38 +669,38 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>AVAL</t>
+          <t>WTI</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>619</v>
+        <v>922</v>
       </c>
       <c r="F4" t="n">
-        <v>8.075420379638672</v>
+        <v>2.25</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2074.5</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>-4998.685214996338</v>
+        <v>-5000</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>625</v>
+        <v>2222.222222222222</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>4998.685214996338</v>
+        <v>5000</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -717,40 +715,78 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>8.075420379638672</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="B5" s="2" t="n">
+        <v>44431</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>WTI</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>922</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.980000019073486</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2747.560017585754</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1677.852338254197</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2074.5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>673.0600175857544</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.32444445292155</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.980000019073486</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>01/01/2020</t>
-        </is>
+      <c r="B6" s="2" t="n">
+        <v>44494</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -759,38 +795,38 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DMTK</t>
+          <t>WTI</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>403</v>
+        <v>922</v>
       </c>
       <c r="F6" t="n">
-        <v>12.39999961853027</v>
+        <v>4.650000095367432</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>4287.300087928772</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-4997.1998462677</v>
+        <v>-5000</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>416.6666666666667</v>
+        <v>1075.268795151479</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>4997.1998462677</v>
+        <v>5000</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -805,17 +841,15 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>12.39999961853027</v>
+        <v>4.650000095367432</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>01/01/2020</t>
-        </is>
+      <c r="B7" s="2" t="n">
+        <v>43832</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -824,38 +858,38 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>GLBD</t>
+          <t>HZNP</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2941</v>
+        <v>137</v>
       </c>
       <c r="F7" t="n">
-        <v>1.700000047683716</v>
+        <v>36.38000106811523</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>4984.060146331787</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>-4999.700140237808</v>
+        <v>-5000</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>5000</v>
+        <v>137.4381487960478</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>4999.700140237808</v>
+        <v>5000</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -870,31 +904,6646 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>1.700000047683716</v>
+        <v>36.38000106811523</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
+      <c r="B8" s="2" t="n">
+        <v>43922</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>HZNP</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>137</v>
+      </c>
+      <c r="F8" t="n">
+        <v>30.20000076293945</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4137.400104522705</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>165.5629097246862</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4984.060146331787</v>
+      </c>
+      <c r="P8" t="n">
+        <v>36.38000106811523</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-846.660041809082</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.830126439699526</v>
+      </c>
+      <c r="S8" t="n">
+        <v>30.20000076293945</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>43963</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>HZNP</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>137</v>
+      </c>
+      <c r="F9" t="n">
+        <v>46.18000030517578</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6326.660041809082</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>108.2719784962758</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>46.18000030517578</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>43832</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>EC</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>271</v>
+      </c>
+      <c r="F10" t="n">
+        <v>18.44821929931641</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4999.467430114746</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>271.0288683626649</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>18.44821929931641</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>43903</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>EC</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>271</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9.837233543395996</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2665.890290260315</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>508.2729791808833</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O11" t="n">
+        <v>4999.467430114746</v>
+      </c>
+      <c r="P11" t="n">
+        <v>18.44821929931641</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-2333.577139854431</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.5332348550171729</v>
+      </c>
+      <c r="S11" t="n">
+        <v>9.837233543395996</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>44067</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>EC</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>271</v>
+      </c>
+      <c r="F12" t="n">
+        <v>11.44674682617188</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3102.068389892578</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>436.8053278306099</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>11.44674682617188</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>44113</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>EC</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>271</v>
+      </c>
+      <c r="F13" t="n">
+        <v>9.977434158325195</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2703.884656906128</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>501.1308439282446</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O13" t="n">
+        <v>3102.068389892578</v>
+      </c>
+      <c r="P13" t="n">
+        <v>11.44674682617188</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-398.1837329864502</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.8716392796871126</v>
+      </c>
+      <c r="S13" t="n">
+        <v>9.977434158325195</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>EC</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>271</v>
+      </c>
+      <c r="F14" t="n">
+        <v>13.1940393447876</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3575.584662437439</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>378.9590033301884</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>13.1940393447876</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>EC</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>271</v>
+      </c>
+      <c r="F15" t="n">
+        <v>12.71000003814697</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3444.41001033783</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>393.391029503802</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O15" t="n">
+        <v>3575.584662437439</v>
+      </c>
+      <c r="P15" t="n">
+        <v>13.1940393447876</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>-131.1746520996094</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.9633137893565666</v>
+      </c>
+      <c r="S15" t="n">
+        <v>12.71000003814697</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>44372</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>EC</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>271</v>
+      </c>
+      <c r="F16" t="n">
+        <v>14.84000015258789</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4021.640041351318</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>336.9272202553225</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>14.84000015258789</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>43832</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SMFG</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>669</v>
+      </c>
+      <c r="F17" t="n">
+        <v>7.46999979019165</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4997.429859638214</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>669.3440616377474</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>7.46999979019165</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>43889</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>SMFG</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>669</v>
+      </c>
+      <c r="F18" t="n">
+        <v>6.369999885559082</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4261.529923439026</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>784.9293704596605</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O18" t="n">
+        <v>4997.429859638214</v>
+      </c>
+      <c r="P18" t="n">
+        <v>7.46999979019165</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-735.8999361991882</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.8527443192064204</v>
+      </c>
+      <c r="S18" t="n">
+        <v>6.369999885559082</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>44062</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SMFG</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>669</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5.760000228881836</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3853.440153121948</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>868.0555210621283</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5.760000228881836</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>44396</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SMFG</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>669</v>
+      </c>
+      <c r="F20" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4415.399936199188</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>757.5757685224327</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O20" t="n">
+        <v>3853.440153121948</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5.760000228881836</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>561.95978307724</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.145833271245164</v>
+      </c>
+      <c r="S20" t="n">
+        <v>6.599999904632568</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>44480</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SMFG</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>669</v>
+      </c>
+      <c r="F21" t="n">
+        <v>6.940000057220459</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4642.860038280487</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>720.4610891606463</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>6.940000057220459</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>44496</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SMFG</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>669</v>
+      </c>
+      <c r="F22" t="n">
+        <v>6.570000171661377</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4395.330114841461</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>761.0349877259796</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O22" t="n">
+        <v>4642.860038280487</v>
+      </c>
+      <c r="P22" t="n">
+        <v>6.940000057220459</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>-247.5299234390259</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.9466858958921579</v>
+      </c>
+      <c r="S22" t="n">
+        <v>6.570000171661377</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>44028</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>WETF</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>1386</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3.605642795562744</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4997.420914649963</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1386.715291418554</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3.605642795562744</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>44417</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>WETF</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1386</v>
+      </c>
+      <c r="F24" t="n">
+        <v>6.381679058074951</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8845.007174491882</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>783.4928636333307</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O24" t="n">
+        <v>4997.420914649963</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.605642795562744</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3847.586259841919</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.769914386951618</v>
+      </c>
+      <c r="S24" t="n">
+        <v>6.381679058074951</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>44526</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>WETF</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>1386</v>
+      </c>
+      <c r="F25" t="n">
+        <v>6.230000019073486</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>8634.780026435852</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>802.5682158414488</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>6.230000019073486</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>43832</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>KB</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>122</v>
+      </c>
+      <c r="F26" t="n">
+        <v>40.86999893188477</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4986.139869689941</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>122.3391272491384</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>40.86999893188477</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>43892</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>KB</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>122</v>
+      </c>
+      <c r="F27" t="n">
+        <v>32.38000106811523</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3950.360130310059</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>154.4163012682395</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O27" t="n">
+        <v>4986.139869689941</v>
+      </c>
+      <c r="P27" t="n">
+        <v>40.86999893188477</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>-1035.779739379883</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.7922682141998773</v>
+      </c>
+      <c r="S27" t="n">
+        <v>32.38000106811523</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>44054</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>KB</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>122</v>
+      </c>
+      <c r="F28" t="n">
+        <v>32.88999938964844</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4012.579925537109</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>152.0218939734509</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>32.88999938964844</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>44421</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>KB</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>122</v>
+      </c>
+      <c r="F29" t="n">
+        <v>45.61000061035156</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>5564.420074462891</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>109.6250807518123</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O29" t="n">
+        <v>4012.579925537109</v>
+      </c>
+      <c r="P29" t="n">
+        <v>32.88999938964844</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1551.840148925781</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.386743735383179</v>
+      </c>
+      <c r="S29" t="n">
+        <v>45.61000061035156</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>44523</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>KB</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>122</v>
+      </c>
+      <c r="F30" t="n">
+        <v>48.27999877929688</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5890.159851074219</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>103.5625543997335</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>48.27999877929688</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>43832</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>CIB</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>94</v>
+      </c>
+      <c r="F31" t="n">
+        <v>53.12486267089844</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4993.737091064453</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>94.1178903553002</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>53.12486267089844</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>43900</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>CIB</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>94</v>
+      </c>
+      <c r="F32" t="n">
+        <v>35.2209587097168</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3310.770118713379</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>141.9609284690083</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O32" t="n">
+        <v>4993.737091064453</v>
+      </c>
+      <c r="P32" t="n">
+        <v>53.12486267089844</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>-1682.966972351074</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.6629844660099362</v>
+      </c>
+      <c r="S32" t="n">
+        <v>35.2209587097168</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>44088</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>CIB</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>94</v>
+      </c>
+      <c r="F33" t="n">
+        <v>26.97405815124512</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2535.561466217041</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>185.3632839361696</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>26.97405815124512</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>44133</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>CIB</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>94</v>
+      </c>
+      <c r="F34" t="n">
+        <v>24.41209411621094</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2294.736846923828</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>204.8165133313873</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O34" t="n">
+        <v>2535.561466217041</v>
+      </c>
+      <c r="P34" t="n">
+        <v>26.97405815124512</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>-240.8246192932129</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.9050211866279408</v>
+      </c>
+      <c r="S34" t="n">
+        <v>24.41209411621094</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>44151</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>CIB</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>94</v>
+      </c>
+      <c r="F35" t="n">
+        <v>30.68019676208496</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2883.938495635986</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>162.9715754032932</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>30.68019676208496</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>44306</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>CIB</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>94</v>
+      </c>
+      <c r="F36" t="n">
+        <v>32.21729278564453</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3028.425521850586</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>155.1961560912999</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O36" t="n">
+        <v>2883.938495635986</v>
+      </c>
+      <c r="P36" t="n">
+        <v>30.68019676208496</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>144.4870262145996</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.050100592101128</v>
+      </c>
+      <c r="S36" t="n">
+        <v>32.21729278564453</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>44454</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>CIB</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>94</v>
+      </c>
+      <c r="F37" t="n">
+        <v>32.64580535888672</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3068.705703735352</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>153.1590336042642</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>32.64580535888672</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>44018</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>ASPS</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>336</v>
+      </c>
+      <c r="F38" t="n">
+        <v>14.84000015258789</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>4986.240051269531</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>336.9272202553225</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>14.84000015258789</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>44165</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>ASPS</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>336</v>
+      </c>
+      <c r="F39" t="n">
+        <v>13.18000030517578</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>4428.480102539062</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>379.3626619292643</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O39" t="n">
+        <v>4986.240051269531</v>
+      </c>
+      <c r="P39" t="n">
+        <v>14.84000015258789</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>-557.7599487304688</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.8881401731574357</v>
+      </c>
+      <c r="S39" t="n">
+        <v>13.18000030517578</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>44182</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>ASPS</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>336</v>
+      </c>
+      <c r="F40" t="n">
+        <v>14.63000011444092</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>4915.680038452148</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>341.7634969848443</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>14.63000011444092</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>44230</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>ASPS</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>336</v>
+      </c>
+      <c r="F41" t="n">
+        <v>11.01000022888184</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3699.360076904297</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>454.1325972804085</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O41" t="n">
+        <v>4915.680038452148</v>
+      </c>
+      <c r="P41" t="n">
+        <v>14.63000011444092</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>-1216.319961547852</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.7525632360053184</v>
+      </c>
+      <c r="S41" t="n">
+        <v>11.01000022888184</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>ASPS</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>336</v>
+      </c>
+      <c r="F42" t="n">
+        <v>8.529999732971191</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2866.07991027832</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>586.1664896275896</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>8.529999732971191</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>43832</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>AVAL</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>613</v>
+      </c>
+      <c r="F43" t="n">
+        <v>8.149506568908691</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>4995.647526741028</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>613.534078133709</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>8.149506568908691</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>43907</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>AVAL</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>613</v>
+      </c>
+      <c r="F44" t="n">
+        <v>4.243762969970703</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2601.426700592041</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1178.199639183552</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O44" t="n">
+        <v>4995.647526741028</v>
+      </c>
+      <c r="P44" t="n">
+        <v>8.149506568908691</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>-2394.220826148987</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.5207386403197893</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4.243762969970703</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>44088</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>AVAL</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>613</v>
+      </c>
+      <c r="F45" t="n">
+        <v>4.62018346786499</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2832.172465801239</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1082.208105971715</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4.62018346786499</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>44328</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>AVAL</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>613</v>
+      </c>
+      <c r="F46" t="n">
+        <v>5.67162561416626</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3476.706501483917</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>881.5814618495424</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O46" t="n">
+        <v>2832.172465801239</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4.62018346786499</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>644.5340356826782</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.227575842737506</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5.67162561416626</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>44473</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>AVAL</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>613</v>
+      </c>
+      <c r="F47" t="n">
+        <v>5.842697620391846</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3581.573641300201</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>855.7690855931495</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5.842697620391846</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>43832</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>DYSL</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>4545</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1.100000023841858</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>4999.500108361244</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>4545.454446934474</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1.100000023841858</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>43838</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>DYSL</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>4545</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.100000023841858</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>4999.500108361244</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>4545.454446934474</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O49" t="n">
+        <v>4999.500108361244</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.100000023841858</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1.100000023841858</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>44011</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>DYSL</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>4545</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.129999995231628</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>5135.849978327751</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>4424.778779733619</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1.129999995231628</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>44074</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>DYSL</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>4545</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.8999999761581421</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>4090.499891638756</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>5555.555702727522</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O51" t="n">
+        <v>5135.849978327751</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1.129999995231628</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>-1045.350086688995</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.796460159253062</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.8999999761581421</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>44148</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>DYSL</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>4545</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.029999971389771</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>4681.349869966507</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>4854.369066878265</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1.029999971389771</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>44389</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>DYSL</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>4545</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1.200000047683716</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>5454.000216722488</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>4166.666501098215</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O53" t="n">
+        <v>4681.349869966507</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1.029999971389771</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>772.6503467559814</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1.165048622345655</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1.200000047683716</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>44407</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>DYSL</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>4545</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1.240000009536743</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>5635.800043344498</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>4032.258033504347</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1.240000009536743</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>44410</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>DYSL</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>4545</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.179999947547913</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>5363.099761605263</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>4237.288323944591</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O55" t="n">
+        <v>5635.800043344498</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1.240000009536743</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>-272.7002817392349</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.9516128536069558</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1.179999947547913</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>44487</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>DYSL</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>4545</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>5681.25</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>44060</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>ITCB</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>1054</v>
+      </c>
+      <c r="F57" t="n">
+        <v>4.739999771118164</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>4995.959758758545</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1054.852371611086</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4.739999771118164</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>44118</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>ITCB</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>1054</v>
+      </c>
+      <c r="F58" t="n">
+        <v>3.869999885559082</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>4078.979879379272</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1291.989702288498</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O58" t="n">
+        <v>4995.959758758545</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4.739999771118164</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>-916.9798793792725</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.8164557114833257</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3.869999885559082</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>44183</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>ITCB</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>1054</v>
+      </c>
+      <c r="F59" t="n">
+        <v>4.900000095367432</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>5164.600100517273</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1020.408143405367</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4.900000095367432</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>44355</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>ITCB</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>1054</v>
+      </c>
+      <c r="F60" t="n">
+        <v>4.71999979019165</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>4974.879778862</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1059.322080986148</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O60" t="n">
+        <v>5164.600100517273</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4.900000095367432</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>-189.7203216552734</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.9632652445566363</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4.71999979019165</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>43836</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>LXFR</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>289</v>
+      </c>
+      <c r="F62" t="n">
+        <v>17.26512336730957</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>4989.620653152466</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>289.6011742069093</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>17.26512336730957</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>43893</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>LXFR</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>289</v>
+      </c>
+      <c r="F63" t="n">
+        <v>14.50381183624268</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>4191.601620674133</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>344.7369599422001</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O63" t="n">
+        <v>4989.620653152466</v>
+      </c>
+      <c r="P63" t="n">
+        <v>17.26512336730957</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>-798.0190324783325</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.8400641876503897</v>
+      </c>
+      <c r="S63" t="n">
+        <v>14.50381183624268</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>LXFR</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>289</v>
+      </c>
+      <c r="F64" t="n">
+        <v>13.91080856323242</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>4020.22367477417</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>359.4327373043916</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>13.91080856323242</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>44109</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>LXFR</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>289</v>
+      </c>
+      <c r="F65" t="n">
+        <v>12.5873498916626</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>3637.744118690491</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>397.2242007280514</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O65" t="n">
+        <v>4020.22367477417</v>
+      </c>
+      <c r="P65" t="n">
+        <v>13.91080856323242</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>-382.4795560836792</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.9048611253936849</v>
+      </c>
+      <c r="S65" t="n">
+        <v>12.5873498916626</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>44158</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>LXFR</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>289</v>
+      </c>
+      <c r="F66" t="n">
+        <v>14.89369487762451</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>4304.277819633484</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>335.7125307778214</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>14.89369487762451</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>44431</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>LXFR</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>289</v>
+      </c>
+      <c r="F67" t="n">
+        <v>20.84440040588379</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>6024.031717300415</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>239.8725750148534</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O67" t="n">
+        <v>4304.277819633484</v>
+      </c>
+      <c r="P67" t="n">
+        <v>14.89369487762451</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1719.753897666931</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1.399545282561099</v>
+      </c>
+      <c r="S67" t="n">
+        <v>20.84440040588379</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>44522</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>LXFR</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>289</v>
+      </c>
+      <c r="F68" t="n">
+        <v>21.1299991607666</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>6106.569757461548</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>236.630392739618</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
+      <c r="S68" t="n">
+        <v>21.1299991607666</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>43854</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>ARGO</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>78</v>
+      </c>
+      <c r="F69" t="n">
+        <v>63.313232421875</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>4938.43212890625</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>78.97243291392081</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>63.313232421875</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>43889</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>ARGO</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>78</v>
+      </c>
+      <c r="F70" t="n">
+        <v>53.59968566894531</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>4180.775482177734</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>93.28412914363246</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O70" t="n">
+        <v>4938.43212890625</v>
+      </c>
+      <c r="P70" t="n">
+        <v>63.313232421875</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>-757.6566467285156</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.8465795161396054</v>
+      </c>
+      <c r="S70" t="n">
+        <v>53.59968566894531</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>44088</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>ARGO</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>78</v>
+      </c>
+      <c r="F71" t="n">
+        <v>34.90073776245117</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2722.257545471191</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>143.2634471520936</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
+      <c r="S71" t="n">
+        <v>34.90073776245117</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>44470</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>ARGO</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>78</v>
+      </c>
+      <c r="F72" t="n">
+        <v>52.54408645629883</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>4098.438743591309</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>95.15818690954927</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O72" t="n">
+        <v>2722.257545471191</v>
+      </c>
+      <c r="P72" t="n">
+        <v>34.90073776245117</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>1376.181198120117</v>
+      </c>
+      <c r="R72" t="n">
+        <v>1.505529390637401</v>
+      </c>
+      <c r="S72" t="n">
+        <v>52.54408645629883</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>44497</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>ARGO</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>78</v>
+      </c>
+      <c r="F73" t="n">
+        <v>54.87141799926758</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>4279.970603942871</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>91.12212117548593</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" t="n">
+        <v>54.87141799926758</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>43832</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>MUFG</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>917</v>
+      </c>
+      <c r="F74" t="n">
+        <v>5.449999809265137</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>4997.64982509613</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>917.4312247680953</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5.449999809265137</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>43889</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>MUFG</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>917</v>
+      </c>
+      <c r="F75" t="n">
+        <v>4.869999885559082</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>4465.789895057678</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1026.694069300988</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O75" t="n">
+        <v>4997.64982509613</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5.449999809265137</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>-531.8599300384521</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.8935779919257905</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4.869999885559082</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>44082</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>MUFG</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>917</v>
+      </c>
+      <c r="F76" t="n">
+        <v>4.139999866485596</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>3796.379877567291</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1207.729507548137</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4.139999866485596</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>44411</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>MUFG</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>917</v>
+      </c>
+      <c r="F77" t="n">
+        <v>5.380000114440918</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>4933.460104942322</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>929.3680099706825</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O77" t="n">
+        <v>3796.379877567291</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4.139999866485596</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1137.080227375031</v>
+      </c>
+      <c r="R77" t="n">
+        <v>1.29951697776453</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5.380000114440918</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>44455</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>MUFG</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>917</v>
+      </c>
+      <c r="F78" t="n">
+        <v>5.869999885559082</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>5382.789895057678</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>851.7887729948022</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5.869999885559082</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>43832</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>TAK</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>251</v>
+      </c>
+      <c r="F79" t="n">
+        <v>19.92000007629395</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>4999.92001914978</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>251.0040151029073</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
+      <c r="S79" t="n">
+        <v>19.92000007629395</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>43903</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>TAK</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>251</v>
+      </c>
+      <c r="F80" t="n">
+        <v>14.92000007629395</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>3744.92001914978</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>335.1206417179842</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O80" t="n">
+        <v>4999.92001914978</v>
+      </c>
+      <c r="P80" t="n">
+        <v>19.92000007629395</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>-1255</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.7489959848970927</v>
+      </c>
+      <c r="S80" t="n">
+        <v>14.92000007629395</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>43992</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>TAK</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>251</v>
+      </c>
+      <c r="F81" t="n">
+        <v>18.93000030517578</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>4751.430076599121</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>264.1310047223251</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
+      <c r="S81" t="n">
+        <v>18.93000030517578</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>44123</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>TAK</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>251</v>
+      </c>
+      <c r="F82" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>4204.25</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>298.5074626865672</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O82" t="n">
+        <v>4751.430076599121</v>
+      </c>
+      <c r="P82" t="n">
+        <v>18.93000030517578</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>-547.1800765991211</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0.8848388658197891</v>
+      </c>
+      <c r="S82" t="n">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>44193</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>TAK</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>251</v>
+      </c>
+      <c r="F83" t="n">
+        <v>18.13999938964844</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>4553.139846801758</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>275.6339673778182</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
+      <c r="S83" t="n">
+        <v>18.13999938964844</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>44235</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>TAK</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>251</v>
+      </c>
+      <c r="F84" t="n">
+        <v>17.42000007629395</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>4372.42001914978</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>287.026405172309</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O84" t="n">
+        <v>4553.139846801758</v>
+      </c>
+      <c r="P84" t="n">
+        <v>18.13999938964844</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>-180.7198276519775</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0.9603087465501593</v>
+      </c>
+      <c r="S84" t="n">
+        <v>17.42000007629395</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>44274</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>TAK</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>251</v>
+      </c>
+      <c r="F85" t="n">
+        <v>19.80999946594238</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>4972.309865951538</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>252.3977857039354</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
+      <c r="S85" t="n">
+        <v>19.80999946594238</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>TAK</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>251</v>
+      </c>
+      <c r="F86" t="n">
+        <v>16.8700008392334</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>4234.370210647583</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>296.3840990672534</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O86" t="n">
+        <v>4972.309865951538</v>
+      </c>
+      <c r="P86" t="n">
+        <v>19.80999946594238</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>-737.9396553039551</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.8515901713292083</v>
+      </c>
+      <c r="S86" t="n">
+        <v>16.8700008392334</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>43832</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>COOP</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>409</v>
+      </c>
+      <c r="F87" t="n">
+        <v>12.22000026702881</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>4997.980109214783</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>409.1652938413322</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
+      <c r="S87" t="n">
+        <v>12.22000026702881</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>43909</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>COOP</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>409</v>
+      </c>
+      <c r="F88" t="n">
+        <v>6.800000190734863</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>2781.200078010559</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>735.2940970226149</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O88" t="n">
+        <v>4997.980109214783</v>
+      </c>
+      <c r="P88" t="n">
+        <v>12.22000026702881</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>-2216.780031204224</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0.556464815232629</v>
+      </c>
+      <c r="S88" t="n">
+        <v>6.800000190734863</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>44005</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>COOP</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>409</v>
+      </c>
+      <c r="F89" t="n">
+        <v>13.14000034332275</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>5374.260140419006</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>380.5174938629898</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
+      <c r="S89" t="n">
+        <v>13.14000034332275</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>43832</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>GLBD</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>2941</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1.700000047683716</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>4999.700140237808</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>2941.17638809046</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
+      <c r="S90" t="n">
+        <v>1.700000047683716</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>43846</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>GLBD</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>2941</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.3499999940395355</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1029.349982470274</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>14285.71452899855</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O91" t="n">
+        <v>4999.700140237808</v>
+      </c>
+      <c r="P91" t="n">
+        <v>1.700000047683716</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>-3970.350157767534</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0.2058823436601767</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0.3499999940395355</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>44202</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>GLBD</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>2941</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.5199999809265137</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1529.319943904877</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>9615.384968074834</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0</v>
+      </c>
+      <c r="S92" t="n">
+        <v>0.5199999809265137</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>44230</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>GLBD</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>2941</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.05999999865889549</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>176.4599960558116</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>83333.33519597852</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O93" t="n">
+        <v>1529.319943904877</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0.5199999809265137</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>-1352.859947849065</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0.1153846170378508</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0.05999999865889549</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>44267</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>GLBD</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>2941</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2941</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
+      <c r="S94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>44375</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>GLBD</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>2941</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.2700000107288361</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>794.0700315535069</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>18518.51778265874</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O95" t="n">
+        <v>2941</v>
+      </c>
+      <c r="P95" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>-2146.929968446493</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0.2700000107288361</v>
+      </c>
+      <c r="S95" t="n">
+        <v>0.2700000107288361</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>44007</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>KDOZF</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>5000</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
+      <c r="S96" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>44067</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>KDOZF</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.239999994635582</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>4799.999892711639</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>20833.33379899463</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O97" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>-200.0001072883606</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0.9599999785423279</v>
+      </c>
+      <c r="S97" t="n">
+        <v>0.239999994635582</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>44068</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>KDOZF</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.239999994635582</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>4799.999892711639</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>20833.33379899463</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0</v>
+      </c>
+      <c r="P98" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0</v>
+      </c>
+      <c r="S98" t="n">
+        <v>0.239999994635582</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>44070</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>KDOZF</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.239999994635582</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>4799.999892711639</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>20833.33379899463</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O99" t="n">
+        <v>4799.999892711639</v>
+      </c>
+      <c r="P99" t="n">
+        <v>0.239999994635582</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
+      <c r="R99" t="n">
+        <v>1</v>
+      </c>
+      <c r="S99" t="n">
+        <v>0.239999994635582</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>44083</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>KDOZF</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.2300000041723251</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>4600.000083446503</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>21739.13004042296</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0</v>
+      </c>
+      <c r="P100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0</v>
+      </c>
+      <c r="S100" t="n">
+        <v>0.2300000041723251</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>44383</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>KDOZF</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>11000.00023841858</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>9090.908893868947</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O101" t="n">
+        <v>4600.000083446503</v>
+      </c>
+      <c r="P101" t="n">
+        <v>0.2300000041723251</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>6400.000154972076</v>
+      </c>
+      <c r="R101" t="n">
+        <v>2.391304356276651</v>
+      </c>
+      <c r="S101" t="n">
+        <v>0.550000011920929</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>43936</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>MMNT</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>5813</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.8600000143051147</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>4999.180083155632</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>5813.953391663639</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
+      <c r="R102" t="n">
+        <v>0</v>
+      </c>
+      <c r="S102" t="n">
+        <v>0.8600000143051147</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>43986</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>MMNT</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>5813</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.2700000107288361</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1569.510062366724</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>18518.51778265874</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O103" t="n">
+        <v>4999.180083155632</v>
+      </c>
+      <c r="P103" t="n">
+        <v>0.8600000143051147</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>-3429.670020788908</v>
+      </c>
+      <c r="R103" t="n">
+        <v>0.3139534956252271</v>
+      </c>
+      <c r="S103" t="n">
+        <v>0.2700000107288361</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>44270</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>MMNT</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>5813</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.1500000059604645</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>871.95003464818</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>33333.33200878572</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0</v>
+      </c>
+      <c r="P104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
+      <c r="R104" t="n">
+        <v>0</v>
+      </c>
+      <c r="S104" t="n">
+        <v>0.1500000059604645</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>44271</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>MMNT</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>5813</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.1110000014305115</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>645.2430083155632</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>45045.04446452745</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O105" t="n">
+        <v>871.95003464818</v>
+      </c>
+      <c r="P105" t="n">
+        <v>0.1500000059604645</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>-226.7070263326168</v>
+      </c>
+      <c r="R105" t="n">
+        <v>0.7399999801317859</v>
+      </c>
+      <c r="S105" t="n">
+        <v>0.1110000014305115</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>MMNT</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>5813</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.1825000047683716</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1060.872527718544</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>27397.25955813527</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0</v>
+      </c>
+      <c r="P106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0</v>
+      </c>
+      <c r="R106" t="n">
+        <v>0</v>
+      </c>
+      <c r="S106" t="n">
+        <v>0.1825000047683716</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>44295</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>MMNT</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>5813</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.135000005364418</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>784.755031183362</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>37037.03556531747</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O107" t="n">
+        <v>1060.872527718544</v>
+      </c>
+      <c r="P107" t="n">
+        <v>0.1825000047683716</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>-276.117496535182</v>
+      </c>
+      <c r="R107" t="n">
+        <v>0.7397260374637228</v>
+      </c>
+      <c r="S107" t="n">
+        <v>0.135000005364418</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>44362</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>MMNT</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>5813</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1162.60001732409</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>24999.99962747098</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
+      <c r="R108" t="n">
+        <v>0</v>
+      </c>
+      <c r="S108" t="n">
+        <v>0.2000000029802322</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>44419</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>MMNT</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>5813</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.05000000074505806</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>290.6500043310225</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>99999.99850988391</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O109" t="n">
+        <v>1162.60001732409</v>
+      </c>
+      <c r="P109" t="n">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>-871.9500129930675</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="S109" t="n">
+        <v>0.05000000074505806</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>43832</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>SCND</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>649</v>
+      </c>
+      <c r="F110" t="n">
+        <v>7.699999809265137</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>4997.299876213074</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>649.3506654355598</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0</v>
+      </c>
+      <c r="P110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0</v>
+      </c>
+      <c r="R110" t="n">
+        <v>0</v>
+      </c>
+      <c r="S110" t="n">
+        <v>7.699999809265137</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>43992</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>SCND</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>649</v>
+      </c>
+      <c r="F111" t="n">
+        <v>9.810000419616699</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>6366.690272331238</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>509.6839741211104</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O111" t="n">
+        <v>4997.299876213074</v>
+      </c>
+      <c r="P111" t="n">
+        <v>7.699999809265137</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>1369.390396118164</v>
+      </c>
+      <c r="R111" t="n">
+        <v>1.274026060080245</v>
+      </c>
+      <c r="S111" t="n">
+        <v>9.810000419616699</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>SCND</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>649</v>
+      </c>
+      <c r="F112" t="n">
+        <v>8.350000381469727</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>5419.150247573853</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>598.8023678532963</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O112" t="n">
+        <v>0</v>
+      </c>
+      <c r="P112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0</v>
+      </c>
+      <c r="R112" t="n">
+        <v>0</v>
+      </c>
+      <c r="S112" t="n">
+        <v>8.350000381469727</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>44424</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>SCND</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>649</v>
+      </c>
+      <c r="F113" t="n">
+        <v>10</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>6490</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>500</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O113" t="n">
+        <v>5419.150247573853</v>
+      </c>
+      <c r="P113" t="n">
+        <v>8.350000381469727</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>1070.849752426147</v>
+      </c>
+      <c r="R113" t="n">
+        <v>1.197604735706593</v>
+      </c>
+      <c r="S113" t="n">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
